--- a/data/trans_media/Q20C-Edad-trans_media.xlsx
+++ b/data/trans_media/Q20C-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,49</t>
+          <t>1,73; 11,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 8,0</t>
+          <t>0,71; 8,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,57</t>
+          <t>2,79; 9,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 16,16</t>
+          <t>4,43; 16,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,59</t>
+          <t>1,6; 5,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,33</t>
+          <t>2,0; 6,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,7</t>
+          <t>2,61; 7,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 10,54</t>
+          <t>2,63; 10,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,37</t>
+          <t>1,99; 6,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,45</t>
+          <t>2,62; 5,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,49</t>
+          <t>3,14; 8,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,72</t>
+          <t>1,66; 4,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,4</t>
+          <t>2,22; 8,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,13</t>
+          <t>1,33; 4,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 7,23</t>
+          <t>1,44; 7,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 9,77</t>
+          <t>4,66; 9,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 11,36</t>
+          <t>4,26; 11,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,25</t>
+          <t>2,03; 5,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,94</t>
+          <t>3,98; 7,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,76</t>
+          <t>2,99; 7,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 20,99</t>
+          <t>5,77; 20,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 15,15</t>
+          <t>4,24; 15,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 21,08</t>
+          <t>5,62; 21,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,78</t>
+          <t>3,42; 14,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 10,47</t>
+          <t>4,99; 10,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 9,53</t>
+          <t>4,29; 9,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 12,95</t>
+          <t>5,08; 13,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,78</t>
+          <t>5,44; 10,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,81; 14,03</t>
+          <t>5,86; 14,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 14,97</t>
+          <t>3,42; 14,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,95</t>
+          <t>1,55; 6,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,86</t>
+          <t>3,74; 8,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,91</t>
+          <t>2,46; 5,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,31</t>
+          <t>1,98; 4,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 13,68</t>
+          <t>3,99; 14,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 8,85</t>
+          <t>3,43; 8,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,11</t>
+          <t>2,33; 5,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,59</t>
+          <t>4,49; 9,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 35,1</t>
+          <t>4,12; 32,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,34; 11,01</t>
+          <t>3,46; 11,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,27; 30,75</t>
+          <t>4,52; 36,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,69</t>
+          <t>2,86; 6,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,09</t>
+          <t>1,97; 7,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,23</t>
+          <t>3,09; 9,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 14,87</t>
+          <t>3,96; 13,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,86</t>
+          <t>3,1; 7,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 15,24</t>
+          <t>4,6; 20,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,46</t>
+          <t>4,86; 11,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,74</t>
+          <t>4,16; 7,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,59; 14,95</t>
+          <t>5,65; 14,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,89</t>
+          <t>3,37; 6,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,89</t>
+          <t>4,36; 7,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,25</t>
+          <t>4,92; 8,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,94</t>
+          <t>4,33; 7,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,71</t>
+          <t>4,56; 6,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,23</t>
+          <t>5,65; 9,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
